--- a/Flux value summary.xlsx
+++ b/Flux value summary.xlsx
@@ -1055,7 +1055,7 @@
         <v>317</v>
       </c>
       <c r="E2" t="n">
-        <v>4879.63</v>
+        <v>4658.4</v>
       </c>
     </row>
     <row r="3">
@@ -1072,7 +1072,7 @@
         <v>317</v>
       </c>
       <c r="E3" t="n">
-        <v>14120.25</v>
+        <v>14157.71</v>
       </c>
     </row>
     <row r="4">
@@ -1089,7 +1089,7 @@
         <v>317</v>
       </c>
       <c r="E4" t="n">
-        <v>7260.22</v>
+        <v>6903.84</v>
       </c>
     </row>
     <row r="5">
@@ -1106,7 +1106,7 @@
         <v>317</v>
       </c>
       <c r="E5" t="n">
-        <v>3311.48</v>
+        <v>3754.18</v>
       </c>
     </row>
     <row r="6">
@@ -1123,7 +1123,7 @@
         <v>317</v>
       </c>
       <c r="E6" t="n">
-        <v>3497.07</v>
+        <v>3777.75</v>
       </c>
     </row>
     <row r="7">
@@ -1140,7 +1140,7 @@
         <v>317</v>
       </c>
       <c r="E7" t="n">
-        <v>3692.83</v>
+        <v>4389.52</v>
       </c>
     </row>
     <row r="8">
@@ -1157,7 +1157,7 @@
         <v>317</v>
       </c>
       <c r="E8" t="n">
-        <v>5452.08</v>
+        <v>5455.36</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>317</v>
       </c>
       <c r="E9" t="n">
-        <v>8836.48</v>
+        <v>8835.51</v>
       </c>
     </row>
     <row r="10">
@@ -1191,7 +1191,7 @@
         <v>317</v>
       </c>
       <c r="E10" t="n">
-        <v>5957.83</v>
+        <v>5988.85</v>
       </c>
     </row>
     <row r="11">
@@ -1208,7 +1208,7 @@
         <v>317</v>
       </c>
       <c r="E11" t="n">
-        <v>683.57</v>
+        <v>708.78</v>
       </c>
     </row>
     <row r="12">
@@ -1225,7 +1225,7 @@
         <v>317</v>
       </c>
       <c r="E12" t="n">
-        <v>1205.45</v>
+        <v>1202.83</v>
       </c>
     </row>
     <row r="13">
@@ -1242,7 +1242,7 @@
         <v>317</v>
       </c>
       <c r="E13" t="n">
-        <v>1259.26</v>
+        <v>1254.71</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1259,7 @@
         <v>317</v>
       </c>
       <c r="E14" t="n">
-        <v>4625.66</v>
+        <v>4632.27</v>
       </c>
     </row>
     <row r="15">
@@ -1276,7 +1276,7 @@
         <v>317</v>
       </c>
       <c r="E15" t="n">
-        <v>5950.97</v>
+        <v>5947.19</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
         <v>317</v>
       </c>
       <c r="E16" t="n">
-        <v>5975.13</v>
+        <v>5971.16</v>
       </c>
     </row>
     <row r="17">
@@ -1310,7 +1310,7 @@
         <v>317</v>
       </c>
       <c r="E17" t="n">
-        <v>2160.35</v>
+        <v>2166.67</v>
       </c>
     </row>
     <row r="18">
@@ -1327,7 +1327,7 @@
         <v>317</v>
       </c>
       <c r="E18" t="n">
-        <v>3095.9</v>
+        <v>3104.64</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1344,7 @@
         <v>317</v>
       </c>
       <c r="E19" t="n">
-        <v>3171.45</v>
+        <v>3255.76</v>
       </c>
     </row>
     <row r="20">
@@ -1361,7 +1361,7 @@
         <v>317</v>
       </c>
       <c r="E20" t="n">
-        <v>10817.31</v>
+        <v>10542.23</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1378,7 @@
         <v>317</v>
       </c>
       <c r="E21" t="n">
-        <v>24213.35</v>
+        <v>22724.66</v>
       </c>
     </row>
     <row r="22">
@@ -1395,7 +1395,7 @@
         <v>317</v>
       </c>
       <c r="E22" t="n">
-        <v>13804.14</v>
+        <v>12939.77</v>
       </c>
     </row>
     <row r="23">
@@ -1412,7 +1412,7 @@
         <v>317</v>
       </c>
       <c r="E23" t="n">
-        <v>18283.97</v>
+        <v>18287.28</v>
       </c>
     </row>
     <row r="24">
@@ -1429,7 +1429,7 @@
         <v>317</v>
       </c>
       <c r="E24" t="n">
-        <v>38081.49</v>
+        <v>38101.52</v>
       </c>
     </row>
     <row r="25">
@@ -1446,7 +1446,7 @@
         <v>317</v>
       </c>
       <c r="E25" t="n">
-        <v>22923.99</v>
+        <v>19940.53</v>
       </c>
     </row>
     <row r="26">
@@ -1463,7 +1463,7 @@
         <v>317</v>
       </c>
       <c r="E26" t="n">
-        <v>25396.16</v>
+        <v>25400.8</v>
       </c>
     </row>
     <row r="27">
@@ -1480,7 +1480,7 @@
         <v>317</v>
       </c>
       <c r="E27" t="n">
-        <v>36839.6</v>
+        <v>36839.52</v>
       </c>
     </row>
     <row r="28">
@@ -1497,7 +1497,7 @@
         <v>317</v>
       </c>
       <c r="E28" t="n">
-        <v>20719.43</v>
+        <v>20766.67</v>
       </c>
     </row>
     <row r="29">
@@ -1514,7 +1514,7 @@
         <v>317</v>
       </c>
       <c r="E29" t="n">
-        <v>1442.84</v>
+        <v>1442.88</v>
       </c>
     </row>
     <row r="30">
@@ -1548,7 +1548,7 @@
         <v>317</v>
       </c>
       <c r="E31" t="n">
-        <v>1408.34</v>
+        <v>1408.41</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>316</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
@@ -1599,7 +1599,7 @@
         <v>316</v>
       </c>
       <c r="E34" t="n">
-        <v>10.77</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1616,7 @@
         <v>316</v>
       </c>
       <c r="E35" t="n">
-        <v>112.38</v>
+        <v>120.54</v>
       </c>
     </row>
     <row r="36">
@@ -1633,7 +1633,7 @@
         <v>316</v>
       </c>
       <c r="E36" t="n">
-        <v>67.49</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="37">
@@ -1650,7 +1650,7 @@
         <v>316</v>
       </c>
       <c r="E37" t="n">
-        <v>84.11</v>
+        <v>91.97</v>
       </c>
     </row>
     <row r="38">
@@ -1701,7 +1701,7 @@
         <v>316</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
@@ -1718,7 +1718,7 @@
         <v>316</v>
       </c>
       <c r="E41" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="42">
@@ -1888,7 +1888,7 @@
         <v>316</v>
       </c>
       <c r="E51" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>316</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="54">
@@ -1956,7 +1956,7 @@
         <v>316</v>
       </c>
       <c r="E55" t="n">
-        <v>1.15</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -2024,7 +2024,7 @@
         <v>315</v>
       </c>
       <c r="E59" t="n">
-        <v>10.02</v>
+        <v>9.55</v>
       </c>
     </row>
     <row r="60">
@@ -2041,7 +2041,7 @@
         <v>315</v>
       </c>
       <c r="E60" t="n">
-        <v>143.57</v>
+        <v>143.55</v>
       </c>
     </row>
     <row r="61">
@@ -2058,7 +2058,7 @@
         <v>315</v>
       </c>
       <c r="E61" t="n">
-        <v>59.51</v>
+        <v>56.59</v>
       </c>
     </row>
     <row r="62">
@@ -2075,7 +2075,7 @@
         <v>315</v>
       </c>
       <c r="E62" t="n">
-        <v>16.74</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="63">
@@ -2092,7 +2092,7 @@
         <v>315</v>
       </c>
       <c r="E63" t="n">
-        <v>103.37</v>
+        <v>111.22</v>
       </c>
     </row>
     <row r="64">
@@ -2109,7 +2109,7 @@
         <v>315</v>
       </c>
       <c r="E64" t="n">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="65">
@@ -2126,7 +2126,7 @@
         <v>315</v>
       </c>
       <c r="E65" t="n">
-        <v>156.23</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="66">
@@ -2143,7 +2143,7 @@
         <v>315</v>
       </c>
       <c r="E66" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="67">
@@ -2160,7 +2160,7 @@
         <v>315</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="68">
@@ -2177,7 +2177,7 @@
         <v>315</v>
       </c>
       <c r="E68" t="n">
-        <v>53.46</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="69">
@@ -2194,7 +2194,7 @@
         <v>315</v>
       </c>
       <c r="E69" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="70">
@@ -2211,7 +2211,7 @@
         <v>315</v>
       </c>
       <c r="E70" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="71">
@@ -2228,7 +2228,7 @@
         <v>315</v>
       </c>
       <c r="E71" t="n">
-        <v>8.26</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="72">
@@ -2262,7 +2262,7 @@
         <v>315</v>
       </c>
       <c r="E73" t="n">
-        <v>45.21</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="74">
@@ -2279,7 +2279,7 @@
         <v>315</v>
       </c>
       <c r="E74" t="n">
-        <v>764.13</v>
+        <v>764.08</v>
       </c>
     </row>
     <row r="75">
@@ -2296,7 +2296,7 @@
         <v>315</v>
       </c>
       <c r="E75" t="n">
-        <v>678.62</v>
+        <v>678.65</v>
       </c>
     </row>
     <row r="76">
@@ -2313,7 +2313,7 @@
         <v>315</v>
       </c>
       <c r="E76" t="n">
-        <v>557.56</v>
+        <v>557.82</v>
       </c>
     </row>
     <row r="77">
@@ -2330,7 +2330,7 @@
         <v>315</v>
       </c>
       <c r="E77" t="n">
-        <v>6.4</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="78">
@@ -2347,7 +2347,7 @@
         <v>315</v>
       </c>
       <c r="E78" t="n">
-        <v>30.63</v>
+        <v>28.73</v>
       </c>
     </row>
     <row r="79">
@@ -2364,7 +2364,7 @@
         <v>315</v>
       </c>
       <c r="E79" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="80">
@@ -2398,7 +2398,7 @@
         <v>315</v>
       </c>
       <c r="E81" t="n">
-        <v>155.49</v>
+        <v>155.51</v>
       </c>
     </row>
     <row r="82">
@@ -2415,7 +2415,7 @@
         <v>315</v>
       </c>
       <c r="E82" t="n">
-        <v>102.39</v>
+        <v>89.06</v>
       </c>
     </row>
     <row r="83">
@@ -2483,7 +2483,7 @@
         <v>314</v>
       </c>
       <c r="E86" t="n">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="87">
@@ -2500,7 +2500,7 @@
         <v>314</v>
       </c>
       <c r="E87" t="n">
-        <v>111.91</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="88">
@@ -2517,7 +2517,7 @@
         <v>314</v>
       </c>
       <c r="E88" t="n">
-        <v>11.04</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="89">
@@ -2534,7 +2534,7 @@
         <v>314</v>
       </c>
       <c r="E89" t="n">
-        <v>39.59</v>
+        <v>42.68</v>
       </c>
     </row>
     <row r="90">
@@ -2551,7 +2551,7 @@
         <v>314</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="91">
@@ -2568,7 +2568,7 @@
         <v>314</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="92">
@@ -2602,7 +2602,7 @@
         <v>314</v>
       </c>
       <c r="E93" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="94">
@@ -2619,7 +2619,7 @@
         <v>314</v>
       </c>
       <c r="E94" t="n">
-        <v>60.55</v>
+        <v>53.93</v>
       </c>
     </row>
     <row r="95">
@@ -2636,7 +2636,7 @@
         <v>314</v>
       </c>
       <c r="E95" t="n">
-        <v>28.45</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="96">
@@ -2653,7 +2653,7 @@
         <v>314</v>
       </c>
       <c r="E96" t="n">
-        <v>110.05</v>
+        <v>109.96</v>
       </c>
     </row>
     <row r="97">
@@ -2670,7 +2670,7 @@
         <v>314</v>
       </c>
       <c r="E97" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98">
@@ -2687,7 +2687,7 @@
         <v>314</v>
       </c>
       <c r="E98" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99">
@@ -2721,7 +2721,7 @@
         <v>314</v>
       </c>
       <c r="E100" t="n">
-        <v>14.03</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="101">
@@ -2738,7 +2738,7 @@
         <v>314</v>
       </c>
       <c r="E101" t="n">
-        <v>401.05</v>
+        <v>401.03</v>
       </c>
     </row>
     <row r="102">
@@ -2755,7 +2755,7 @@
         <v>314</v>
       </c>
       <c r="E102" t="n">
-        <v>311.23</v>
+        <v>311.25</v>
       </c>
     </row>
     <row r="103">
@@ -2772,7 +2772,7 @@
         <v>314</v>
       </c>
       <c r="E103" t="n">
-        <v>607.3</v>
+        <v>529.12</v>
       </c>
     </row>
     <row r="104">
@@ -2789,7 +2789,7 @@
         <v>314</v>
       </c>
       <c r="E104" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="105">
@@ -2806,7 +2806,7 @@
         <v>314</v>
       </c>
       <c r="E105" t="n">
-        <v>31.7</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="106">
@@ -2823,7 +2823,7 @@
         <v>314</v>
       </c>
       <c r="E106" t="n">
-        <v>20.12</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="107">
@@ -2874,7 +2874,7 @@
         <v>314</v>
       </c>
       <c r="E109" t="n">
-        <v>177.25</v>
+        <v>154.75</v>
       </c>
     </row>
     <row r="110">
@@ -2942,7 +2942,7 @@
         <v>313</v>
       </c>
       <c r="E113" t="n">
-        <v>114.17</v>
+        <v>105.97</v>
       </c>
     </row>
     <row r="114">
@@ -2959,7 +2959,7 @@
         <v>313</v>
       </c>
       <c r="E114" t="n">
-        <v>170.41</v>
+        <v>157.51</v>
       </c>
     </row>
     <row r="115">
@@ -2976,7 +2976,7 @@
         <v>313</v>
       </c>
       <c r="E115" t="n">
-        <v>45.31</v>
+        <v>39.82</v>
       </c>
     </row>
     <row r="116">
@@ -2993,7 +2993,7 @@
         <v>313</v>
       </c>
       <c r="E116" t="n">
-        <v>262.02</v>
+        <v>278.71</v>
       </c>
     </row>
     <row r="117">
@@ -3010,7 +3010,7 @@
         <v>313</v>
       </c>
       <c r="E117" t="n">
-        <v>518.2</v>
+        <v>523.45</v>
       </c>
     </row>
     <row r="118">
@@ -3027,7 +3027,7 @@
         <v>313</v>
       </c>
       <c r="E118" t="n">
-        <v>282.42</v>
+        <v>290.59</v>
       </c>
     </row>
     <row r="119">
@@ -3061,7 +3061,7 @@
         <v>313</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -3078,7 +3078,7 @@
         <v>313</v>
       </c>
       <c r="E121" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="122">
@@ -3095,7 +3095,7 @@
         <v>313</v>
       </c>
       <c r="E122" t="n">
-        <v>33.53</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="123">
@@ -3112,7 +3112,7 @@
         <v>313</v>
       </c>
       <c r="E123" t="n">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="124">
@@ -3146,7 +3146,7 @@
         <v>313</v>
       </c>
       <c r="E125" t="n">
-        <v>30.88</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="126">
@@ -3163,7 +3163,7 @@
         <v>313</v>
       </c>
       <c r="E126" t="n">
-        <v>16.01</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="127">
@@ -3180,7 +3180,7 @@
         <v>313</v>
       </c>
       <c r="E127" t="n">
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128">
@@ -3197,7 +3197,7 @@
         <v>313</v>
       </c>
       <c r="E128" t="n">
-        <v>263.6</v>
+        <v>256.96</v>
       </c>
     </row>
     <row r="129">
@@ -3214,7 +3214,7 @@
         <v>313</v>
       </c>
       <c r="E129" t="n">
-        <v>142.3</v>
+        <v>133.42</v>
       </c>
     </row>
     <row r="130">
@@ -3231,7 +3231,7 @@
         <v>313</v>
       </c>
       <c r="E130" t="n">
-        <v>123.75</v>
+        <v>116.45</v>
       </c>
     </row>
     <row r="131">
@@ -3248,7 +3248,7 @@
         <v>313</v>
       </c>
       <c r="E131" t="n">
-        <v>112.49</v>
+        <v>109.66</v>
       </c>
     </row>
     <row r="132">
@@ -3265,7 +3265,7 @@
         <v>313</v>
       </c>
       <c r="E132" t="n">
-        <v>322.62</v>
+        <v>302.38</v>
       </c>
     </row>
     <row r="133">
@@ -3282,7 +3282,7 @@
         <v>313</v>
       </c>
       <c r="E133" t="n">
-        <v>120.5</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="134">
@@ -3299,7 +3299,7 @@
         <v>313</v>
       </c>
       <c r="E134" t="n">
-        <v>178.15</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="135">
@@ -3333,7 +3333,7 @@
         <v>313</v>
       </c>
       <c r="E136" t="n">
-        <v>390.31</v>
+        <v>366.25</v>
       </c>
     </row>
     <row r="137">
@@ -3350,7 +3350,7 @@
         <v>313</v>
       </c>
       <c r="E137" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="138">
@@ -3384,7 +3384,7 @@
         <v>313</v>
       </c>
       <c r="E139" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="140">
@@ -3401,7 +3401,7 @@
         <v>312</v>
       </c>
       <c r="E140" t="n">
-        <v>117.94</v>
+        <v>112.58</v>
       </c>
     </row>
     <row r="141">
@@ -3418,7 +3418,7 @@
         <v>312</v>
       </c>
       <c r="E141" t="n">
-        <v>194.13</v>
+        <v>194.12</v>
       </c>
     </row>
     <row r="142">
@@ -3435,7 +3435,7 @@
         <v>312</v>
       </c>
       <c r="E142" t="n">
-        <v>181.83</v>
+        <v>172.23</v>
       </c>
     </row>
     <row r="143">
@@ -3452,7 +3452,7 @@
         <v>312</v>
       </c>
       <c r="E143" t="n">
-        <v>64.85</v>
+        <v>74.31</v>
       </c>
     </row>
     <row r="144">
@@ -3469,7 +3469,7 @@
         <v>312</v>
       </c>
       <c r="E144" t="n">
-        <v>128.84</v>
+        <v>138.54</v>
       </c>
     </row>
     <row r="145">
@@ -3486,7 +3486,7 @@
         <v>312</v>
       </c>
       <c r="E145" t="n">
-        <v>121.87</v>
+        <v>142.19</v>
       </c>
     </row>
     <row r="146">
@@ -3520,7 +3520,7 @@
         <v>312</v>
       </c>
       <c r="E147" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="148">
@@ -3554,7 +3554,7 @@
         <v>312</v>
       </c>
       <c r="E149" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="150">
@@ -3605,7 +3605,7 @@
         <v>312</v>
       </c>
       <c r="E152" t="n">
-        <v>72.22</v>
+        <v>72.32</v>
       </c>
     </row>
     <row r="153">
@@ -3622,7 +3622,7 @@
         <v>312</v>
       </c>
       <c r="E153" t="n">
-        <v>59.74</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="154">
@@ -3639,7 +3639,7 @@
         <v>312</v>
       </c>
       <c r="E154" t="n">
-        <v>107.63</v>
+        <v>107.52</v>
       </c>
     </row>
     <row r="155">
@@ -3656,7 +3656,7 @@
         <v>312</v>
       </c>
       <c r="E155" t="n">
-        <v>18.91</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="156">
@@ -3673,7 +3673,7 @@
         <v>312</v>
       </c>
       <c r="E156" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="157">
@@ -3690,7 +3690,7 @@
         <v>312</v>
       </c>
       <c r="E157" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="158">
@@ -3707,7 +3707,7 @@
         <v>312</v>
       </c>
       <c r="E158" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="159">
@@ -3741,7 +3741,7 @@
         <v>312</v>
       </c>
       <c r="E160" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="161">
@@ -3792,7 +3792,7 @@
         <v>312</v>
       </c>
       <c r="E163" t="n">
-        <v>116.74</v>
+        <v>116.73</v>
       </c>
     </row>
     <row r="164">
@@ -3860,7 +3860,7 @@
         <v>311</v>
       </c>
       <c r="E167" t="n">
-        <v>327.39</v>
+        <v>312.21</v>
       </c>
     </row>
     <row r="168">
@@ -3877,7 +3877,7 @@
         <v>311</v>
       </c>
       <c r="E168" t="n">
-        <v>500.38</v>
+        <v>498.99</v>
       </c>
     </row>
     <row r="169">
@@ -3894,7 +3894,7 @@
         <v>311</v>
       </c>
       <c r="E169" t="n">
-        <v>364.14</v>
+        <v>345.51</v>
       </c>
     </row>
     <row r="170">
@@ -3911,7 +3911,7 @@
         <v>311</v>
       </c>
       <c r="E170" t="n">
-        <v>302.5</v>
+        <v>337.51</v>
       </c>
     </row>
     <row r="171">
@@ -3928,7 +3928,7 @@
         <v>311</v>
       </c>
       <c r="E171" t="n">
-        <v>676.38</v>
+        <v>728.21</v>
       </c>
     </row>
     <row r="172">
@@ -3945,7 +3945,7 @@
         <v>311</v>
       </c>
       <c r="E172" t="n">
-        <v>255.14</v>
+        <v>295.47</v>
       </c>
     </row>
     <row r="173">
@@ -3962,7 +3962,7 @@
         <v>311</v>
       </c>
       <c r="E173" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="174">
@@ -4013,7 +4013,7 @@
         <v>311</v>
       </c>
       <c r="E176" t="n">
-        <v>89.87</v>
+        <v>90.31</v>
       </c>
     </row>
     <row r="177">
@@ -4030,7 +4030,7 @@
         <v>311</v>
       </c>
       <c r="E177" t="n">
-        <v>80.69</v>
+        <v>80.51</v>
       </c>
     </row>
     <row r="178">
@@ -4064,7 +4064,7 @@
         <v>311</v>
       </c>
       <c r="E179" t="n">
-        <v>9.24</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="180">
@@ -4081,7 +4081,7 @@
         <v>311</v>
       </c>
       <c r="E180" t="n">
-        <v>12.85</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="181">
@@ -4132,7 +4132,7 @@
         <v>311</v>
       </c>
       <c r="E183" t="n">
-        <v>13.11</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="184">
@@ -4149,7 +4149,7 @@
         <v>311</v>
       </c>
       <c r="E184" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="185">
@@ -4183,7 +4183,7 @@
         <v>311</v>
       </c>
       <c r="E186" t="n">
-        <v>42.04</v>
+        <v>42.14</v>
       </c>
     </row>
     <row r="187">
@@ -4200,7 +4200,7 @@
         <v>311</v>
       </c>
       <c r="E187" t="n">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="188">
@@ -4217,7 +4217,7 @@
         <v>311</v>
       </c>
       <c r="E188" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="189">
@@ -4251,7 +4251,7 @@
         <v>311</v>
       </c>
       <c r="E190" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="191">
@@ -4302,7 +4302,7 @@
         <v>311</v>
       </c>
       <c r="E193" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="194">
@@ -4319,7 +4319,7 @@
         <v>310</v>
       </c>
       <c r="E194" t="n">
-        <v>200.7</v>
+        <v>189.35</v>
       </c>
     </row>
     <row r="195">
@@ -4336,7 +4336,7 @@
         <v>310</v>
       </c>
       <c r="E195" t="n">
-        <v>263.11</v>
+        <v>257.3</v>
       </c>
     </row>
     <row r="196">
@@ -4353,7 +4353,7 @@
         <v>310</v>
       </c>
       <c r="E196" t="n">
-        <v>114.14</v>
+        <v>106.95</v>
       </c>
     </row>
     <row r="197">
@@ -4370,7 +4370,7 @@
         <v>310</v>
       </c>
       <c r="E197" t="n">
-        <v>1046.24</v>
+        <v>1134.09</v>
       </c>
     </row>
     <row r="198">
@@ -4387,7 +4387,7 @@
         <v>310</v>
       </c>
       <c r="E198" t="n">
-        <v>1542.44</v>
+        <v>1662.28</v>
       </c>
     </row>
     <row r="199">
@@ -4404,7 +4404,7 @@
         <v>310</v>
       </c>
       <c r="E199" t="n">
-        <v>624.1</v>
+        <v>684.52</v>
       </c>
     </row>
     <row r="200">
@@ -4421,7 +4421,7 @@
         <v>310</v>
       </c>
       <c r="E200" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201">
@@ -4472,7 +4472,7 @@
         <v>310</v>
       </c>
       <c r="E203" t="n">
-        <v>113.03</v>
+        <v>112.99</v>
       </c>
     </row>
     <row r="204">
@@ -4489,7 +4489,7 @@
         <v>310</v>
       </c>
       <c r="E204" t="n">
-        <v>82.41</v>
+        <v>81.47</v>
       </c>
     </row>
     <row r="205">
@@ -4506,7 +4506,7 @@
         <v>310</v>
       </c>
       <c r="E205" t="n">
-        <v>62.24</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="206">
@@ -4523,7 +4523,7 @@
         <v>310</v>
       </c>
       <c r="E206" t="n">
-        <v>4.06</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="207">
@@ -4540,7 +4540,7 @@
         <v>310</v>
       </c>
       <c r="E207" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="208">
@@ -4591,7 +4591,7 @@
         <v>310</v>
       </c>
       <c r="E210" t="n">
-        <v>13.3</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="211">
@@ -4642,7 +4642,7 @@
         <v>310</v>
       </c>
       <c r="E213" t="n">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="214">
@@ -4659,7 +4659,7 @@
         <v>310</v>
       </c>
       <c r="E214" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215">
@@ -4676,7 +4676,7 @@
         <v>310</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="216">
@@ -4778,7 +4778,7 @@
         <v>309</v>
       </c>
       <c r="E221" t="n">
-        <v>2757.28</v>
+        <v>2631.64</v>
       </c>
     </row>
     <row r="222">
@@ -4795,7 +4795,7 @@
         <v>309</v>
       </c>
       <c r="E222" t="n">
-        <v>5239.55</v>
+        <v>5249.7</v>
       </c>
     </row>
     <row r="223">
@@ -4812,7 +4812,7 @@
         <v>309</v>
       </c>
       <c r="E223" t="n">
-        <v>2364.12</v>
+        <v>2242.72</v>
       </c>
     </row>
     <row r="224">
@@ -4829,7 +4829,7 @@
         <v>309</v>
       </c>
       <c r="E224" t="n">
-        <v>1590.3</v>
+        <v>1812.59</v>
       </c>
     </row>
     <row r="225">
@@ -4846,7 +4846,7 @@
         <v>309</v>
       </c>
       <c r="E225" t="n">
-        <v>1196.31</v>
+        <v>1279.82</v>
       </c>
     </row>
     <row r="226">
@@ -4863,7 +4863,7 @@
         <v>309</v>
       </c>
       <c r="E226" t="n">
-        <v>1923.12</v>
+        <v>2207.65</v>
       </c>
     </row>
     <row r="227">
@@ -4897,7 +4897,7 @@
         <v>309</v>
       </c>
       <c r="E228" t="n">
-        <v>10.68</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="229">
@@ -4982,7 +4982,7 @@
         <v>309</v>
       </c>
       <c r="E233" t="n">
-        <v>8.78</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="234">
@@ -4999,7 +4999,7 @@
         <v>309</v>
       </c>
       <c r="E234" t="n">
-        <v>5.38</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="235">
@@ -5016,7 +5016,7 @@
         <v>309</v>
       </c>
       <c r="E235" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="236">
@@ -5050,7 +5050,7 @@
         <v>309</v>
       </c>
       <c r="E237" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="238">
@@ -5067,7 +5067,7 @@
         <v>309</v>
       </c>
       <c r="E238" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="239">
@@ -5169,7 +5169,7 @@
         <v>309</v>
       </c>
       <c r="E244" t="n">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="245">
@@ -5237,7 +5237,7 @@
         <v>308</v>
       </c>
       <c r="E248" t="n">
-        <v>3257.54</v>
+        <v>3152.17</v>
       </c>
     </row>
     <row r="249">
@@ -5254,7 +5254,7 @@
         <v>308</v>
       </c>
       <c r="E249" t="n">
-        <v>7240.32</v>
+        <v>7358.69</v>
       </c>
     </row>
     <row r="250">
@@ -5271,7 +5271,7 @@
         <v>308</v>
       </c>
       <c r="E250" t="n">
-        <v>1901.75</v>
+        <v>1847.98</v>
       </c>
     </row>
     <row r="251">
@@ -5288,7 +5288,7 @@
         <v>308</v>
       </c>
       <c r="E251" t="n">
-        <v>32.84</v>
+        <v>35.09</v>
       </c>
     </row>
     <row r="252">
@@ -5305,7 +5305,7 @@
         <v>308</v>
       </c>
       <c r="E252" t="n">
-        <v>22.36</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="253">
@@ -5339,7 +5339,7 @@
         <v>308</v>
       </c>
       <c r="E254" t="n">
-        <v>1426.37</v>
+        <v>1410.34</v>
       </c>
     </row>
     <row r="255">
@@ -5356,7 +5356,7 @@
         <v>308</v>
       </c>
       <c r="E255" t="n">
-        <v>1879.92</v>
+        <v>1884.18</v>
       </c>
     </row>
     <row r="256">
@@ -5373,7 +5373,7 @@
         <v>308</v>
       </c>
       <c r="E256" t="n">
-        <v>888.09</v>
+        <v>897.18</v>
       </c>
     </row>
     <row r="257">
@@ -5390,7 +5390,7 @@
         <v>308</v>
       </c>
       <c r="E257" t="n">
-        <v>635.87</v>
+        <v>629.96</v>
       </c>
     </row>
     <row r="258">
@@ -5407,7 +5407,7 @@
         <v>308</v>
       </c>
       <c r="E258" t="n">
-        <v>1138.62</v>
+        <v>1151.53</v>
       </c>
     </row>
     <row r="259">
@@ -5424,7 +5424,7 @@
         <v>308</v>
       </c>
       <c r="E259" t="n">
-        <v>738.66</v>
+        <v>745.23</v>
       </c>
     </row>
     <row r="260">
@@ -5492,7 +5492,7 @@
         <v>308</v>
       </c>
       <c r="E263" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="264">
@@ -5526,7 +5526,7 @@
         <v>308</v>
       </c>
       <c r="E265" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="266">
@@ -5543,7 +5543,7 @@
         <v>308</v>
       </c>
       <c r="E266" t="n">
-        <v>9.81</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="267">
@@ -5696,7 +5696,7 @@
         <v>307</v>
       </c>
       <c r="E275" t="n">
-        <v>9088.93</v>
+        <v>9359.59</v>
       </c>
     </row>
     <row r="276">
@@ -5713,7 +5713,7 @@
         <v>307</v>
       </c>
       <c r="E276" t="n">
-        <v>14895.04</v>
+        <v>16109.17</v>
       </c>
     </row>
     <row r="277">
@@ -5730,7 +5730,7 @@
         <v>307</v>
       </c>
       <c r="E277" t="n">
-        <v>9156.9</v>
+        <v>9361.14</v>
       </c>
     </row>
     <row r="278">
@@ -5747,7 +5747,7 @@
         <v>307</v>
       </c>
       <c r="E278" t="n">
-        <v>167.68</v>
+        <v>160.46</v>
       </c>
     </row>
     <row r="279">
@@ -5764,7 +5764,7 @@
         <v>307</v>
       </c>
       <c r="E279" t="n">
-        <v>379.62</v>
+        <v>380.9</v>
       </c>
     </row>
     <row r="280">
@@ -5781,7 +5781,7 @@
         <v>307</v>
       </c>
       <c r="E280" t="n">
-        <v>750.8</v>
+        <v>720.65</v>
       </c>
     </row>
     <row r="281">
@@ -5815,7 +5815,7 @@
         <v>307</v>
       </c>
       <c r="E282" t="n">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="283">
@@ -5832,7 +5832,7 @@
         <v>307</v>
       </c>
       <c r="E283" t="n">
-        <v>14.88</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="284">
@@ -5866,7 +5866,7 @@
         <v>307</v>
       </c>
       <c r="E285" t="n">
-        <v>42.62</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="286">
@@ -5883,7 +5883,7 @@
         <v>307</v>
       </c>
       <c r="E286" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="287">
@@ -5900,7 +5900,7 @@
         <v>307</v>
       </c>
       <c r="E287" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="288">
@@ -5917,7 +5917,7 @@
         <v>307</v>
       </c>
       <c r="E288" t="n">
-        <v>10.32</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="289">
@@ -5951,7 +5951,7 @@
         <v>307</v>
       </c>
       <c r="E290" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="291">
@@ -5968,7 +5968,7 @@
         <v>307</v>
       </c>
       <c r="E291" t="n">
-        <v>36.48</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="292">
@@ -5985,7 +5985,7 @@
         <v>307</v>
       </c>
       <c r="E292" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="293">
@@ -6002,7 +6002,7 @@
         <v>307</v>
       </c>
       <c r="E293" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="294">
@@ -6019,7 +6019,7 @@
         <v>307</v>
       </c>
       <c r="E294" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="295">
@@ -6036,7 +6036,7 @@
         <v>307</v>
       </c>
       <c r="E295" t="n">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="296">
@@ -6070,7 +6070,7 @@
         <v>307</v>
       </c>
       <c r="E297" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="298">
@@ -6087,7 +6087,7 @@
         <v>307</v>
       </c>
       <c r="E298" t="n">
-        <v>5.85</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="299">
@@ -6183,7 +6183,7 @@
         <v>319</v>
       </c>
       <c r="E2" t="n">
-        <v>988.79</v>
+        <v>988.84</v>
       </c>
     </row>
     <row r="3">
@@ -6200,7 +6200,7 @@
         <v>319</v>
       </c>
       <c r="E3" t="n">
-        <v>947.1</v>
+        <v>947.24</v>
       </c>
     </row>
     <row r="4">
@@ -6217,7 +6217,7 @@
         <v>319</v>
       </c>
       <c r="E4" t="n">
-        <v>930.83</v>
+        <v>930.79</v>
       </c>
     </row>
     <row r="5">
@@ -6234,7 +6234,7 @@
         <v>319</v>
       </c>
       <c r="E5" t="n">
-        <v>14000.44</v>
+        <v>14000.4</v>
       </c>
     </row>
     <row r="6">
@@ -6251,7 +6251,7 @@
         <v>319</v>
       </c>
       <c r="E6" t="n">
-        <v>10456.1</v>
+        <v>10462.76</v>
       </c>
     </row>
     <row r="7">
@@ -6268,7 +6268,7 @@
         <v>319</v>
       </c>
       <c r="E7" t="n">
-        <v>26287.42</v>
+        <v>26288.3</v>
       </c>
     </row>
     <row r="8">
@@ -6285,7 +6285,7 @@
         <v>319</v>
       </c>
       <c r="E8" t="n">
-        <v>10211.53</v>
+        <v>10211.71</v>
       </c>
     </row>
     <row r="9">
@@ -6302,7 +6302,7 @@
         <v>319</v>
       </c>
       <c r="E9" t="n">
-        <v>11919.15</v>
+        <v>10346.21</v>
       </c>
     </row>
     <row r="10">
@@ -6319,7 +6319,7 @@
         <v>319</v>
       </c>
       <c r="E10" t="n">
-        <v>28197.55</v>
+        <v>28198.63</v>
       </c>
     </row>
     <row r="11">
@@ -6336,7 +6336,7 @@
         <v>319</v>
       </c>
       <c r="E11" t="n">
-        <v>5817.03</v>
+        <v>5665.58</v>
       </c>
     </row>
     <row r="12">
@@ -6353,7 +6353,7 @@
         <v>319</v>
       </c>
       <c r="E12" t="n">
-        <v>8203.08</v>
+        <v>7687.18</v>
       </c>
     </row>
     <row r="13">
@@ -6370,7 +6370,7 @@
         <v>319</v>
       </c>
       <c r="E13" t="n">
-        <v>16782.13</v>
+        <v>15693.6</v>
       </c>
     </row>
     <row r="14">
@@ -6387,7 +6387,7 @@
         <v>319</v>
       </c>
       <c r="E14" t="n">
-        <v>512.37</v>
+        <v>513.17</v>
       </c>
     </row>
     <row r="15">
@@ -6404,7 +6404,7 @@
         <v>319</v>
       </c>
       <c r="E15" t="n">
-        <v>590.96</v>
+        <v>592.06</v>
       </c>
     </row>
     <row r="16">
@@ -6421,7 +6421,7 @@
         <v>319</v>
       </c>
       <c r="E16" t="n">
-        <v>905.17</v>
+        <v>904.38</v>
       </c>
     </row>
     <row r="17">
@@ -6438,7 +6438,7 @@
         <v>319</v>
       </c>
       <c r="E17" t="n">
-        <v>1182.2</v>
+        <v>1185.83</v>
       </c>
     </row>
     <row r="18">
@@ -6455,7 +6455,7 @@
         <v>319</v>
       </c>
       <c r="E18" t="n">
-        <v>957.22</v>
+        <v>961.51</v>
       </c>
     </row>
     <row r="19">
@@ -6472,7 +6472,7 @@
         <v>319</v>
       </c>
       <c r="E19" t="n">
-        <v>1719.97</v>
+        <v>1720.26</v>
       </c>
     </row>
     <row r="20">
@@ -6489,7 +6489,7 @@
         <v>319</v>
       </c>
       <c r="E20" t="n">
-        <v>238.24</v>
+        <v>241.96</v>
       </c>
     </row>
     <row r="21">
@@ -6506,7 +6506,7 @@
         <v>319</v>
       </c>
       <c r="E21" t="n">
-        <v>511.86</v>
+        <v>513.53</v>
       </c>
     </row>
     <row r="22">
@@ -6523,7 +6523,7 @@
         <v>319</v>
       </c>
       <c r="E22" t="n">
-        <v>329.97</v>
+        <v>329.1</v>
       </c>
     </row>
     <row r="23">
@@ -6540,7 +6540,7 @@
         <v>319</v>
       </c>
       <c r="E23" t="n">
-        <v>1983.44</v>
+        <v>1994.33</v>
       </c>
     </row>
     <row r="24">
@@ -6557,7 +6557,7 @@
         <v>319</v>
       </c>
       <c r="E24" t="n">
-        <v>2699.29</v>
+        <v>2712.18</v>
       </c>
     </row>
     <row r="25">
@@ -6574,7 +6574,7 @@
         <v>319</v>
       </c>
       <c r="E25" t="n">
-        <v>2127.13</v>
+        <v>2111.45</v>
       </c>
     </row>
     <row r="26">
@@ -6608,7 +6608,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="n">
-        <v>17.96</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="28">
@@ -6625,7 +6625,7 @@
         <v>319</v>
       </c>
       <c r="E28" t="n">
-        <v>16.57</v>
+        <v>37.38</v>
       </c>
     </row>
     <row r="29">
@@ -6642,7 +6642,7 @@
         <v>319</v>
       </c>
       <c r="E29" t="n">
-        <v>1495.13</v>
+        <v>1457.82</v>
       </c>
     </row>
     <row r="30">
@@ -6659,7 +6659,7 @@
         <v>319</v>
       </c>
       <c r="E30" t="n">
-        <v>1689.35</v>
+        <v>1625.4</v>
       </c>
     </row>
     <row r="31">
@@ -6676,7 +6676,7 @@
         <v>319</v>
       </c>
       <c r="E31" t="n">
-        <v>6123.06</v>
+        <v>6165.73</v>
       </c>
     </row>
     <row r="32">
@@ -6693,7 +6693,7 @@
         <v>320</v>
       </c>
       <c r="E32" t="n">
-        <v>343.03</v>
+        <v>336.54</v>
       </c>
     </row>
     <row r="33">
@@ -6710,7 +6710,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="n">
-        <v>397.37</v>
+        <v>392.07</v>
       </c>
     </row>
     <row r="34">
@@ -6727,7 +6727,7 @@
         <v>320</v>
       </c>
       <c r="E34" t="n">
-        <v>436.45</v>
+        <v>429.39</v>
       </c>
     </row>
     <row r="35">
@@ -6744,7 +6744,7 @@
         <v>320</v>
       </c>
       <c r="E35" t="n">
-        <v>11263.9</v>
+        <v>11260.98</v>
       </c>
     </row>
     <row r="36">
@@ -6761,7 +6761,7 @@
         <v>320</v>
       </c>
       <c r="E36" t="n">
-        <v>9959.2</v>
+        <v>9964.54</v>
       </c>
     </row>
     <row r="37">
@@ -6778,7 +6778,7 @@
         <v>320</v>
       </c>
       <c r="E37" t="n">
-        <v>10009.05</v>
+        <v>10001.74</v>
       </c>
     </row>
     <row r="38">
@@ -6795,7 +6795,7 @@
         <v>320</v>
       </c>
       <c r="E38" t="n">
-        <v>7561.6</v>
+        <v>7560.06</v>
       </c>
     </row>
     <row r="39">
@@ -6812,7 +6812,7 @@
         <v>320</v>
       </c>
       <c r="E39" t="n">
-        <v>10517.41</v>
+        <v>9187.91</v>
       </c>
     </row>
     <row r="40">
@@ -6829,7 +6829,7 @@
         <v>320</v>
       </c>
       <c r="E40" t="n">
-        <v>8895.43</v>
+        <v>8899.52</v>
       </c>
     </row>
     <row r="41">
@@ -6846,7 +6846,7 @@
         <v>320</v>
       </c>
       <c r="E41" t="n">
-        <v>4167.88</v>
+        <v>4047.28</v>
       </c>
     </row>
     <row r="42">
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="E42" t="n">
-        <v>4754.4</v>
+        <v>4446.8</v>
       </c>
     </row>
     <row r="43">
@@ -6880,7 +6880,7 @@
         <v>320</v>
       </c>
       <c r="E43" t="n">
-        <v>6197.28</v>
+        <v>5776.44</v>
       </c>
     </row>
     <row r="44">
@@ -6897,7 +6897,7 @@
         <v>320</v>
       </c>
       <c r="E44" t="n">
-        <v>2703.15</v>
+        <v>2698.4</v>
       </c>
     </row>
     <row r="45">
@@ -6914,7 +6914,7 @@
         <v>320</v>
       </c>
       <c r="E45" t="n">
-        <v>3478.9</v>
+        <v>3471.28</v>
       </c>
     </row>
     <row r="46">
@@ -6931,7 +6931,7 @@
         <v>320</v>
       </c>
       <c r="E46" t="n">
-        <v>2741.29</v>
+        <v>2730.0</v>
       </c>
     </row>
     <row r="47">
@@ -6948,7 +6948,7 @@
         <v>320</v>
       </c>
       <c r="E47" t="n">
-        <v>3609.95</v>
+        <v>3597.96</v>
       </c>
     </row>
     <row r="48">
@@ -6965,7 +6965,7 @@
         <v>320</v>
       </c>
       <c r="E48" t="n">
-        <v>5383.71</v>
+        <v>5365.36</v>
       </c>
     </row>
     <row r="49">
@@ -6982,7 +6982,7 @@
         <v>320</v>
       </c>
       <c r="E49" t="n">
-        <v>4219.82</v>
+        <v>4171.29</v>
       </c>
     </row>
     <row r="50">
@@ -6999,7 +6999,7 @@
         <v>320</v>
       </c>
       <c r="E50" t="n">
-        <v>769.81</v>
+        <v>727.29</v>
       </c>
     </row>
     <row r="51">
@@ -7016,7 +7016,7 @@
         <v>320</v>
       </c>
       <c r="E51" t="n">
-        <v>868.96</v>
+        <v>822.13</v>
       </c>
     </row>
     <row r="52">
@@ -7033,7 +7033,7 @@
         <v>320</v>
       </c>
       <c r="E52" t="n">
-        <v>965.09</v>
+        <v>860.29</v>
       </c>
     </row>
     <row r="53">
@@ -7050,7 +7050,7 @@
         <v>320</v>
       </c>
       <c r="E53" t="n">
-        <v>8.01</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="54">
@@ -7067,7 +7067,7 @@
         <v>320</v>
       </c>
       <c r="E54" t="n">
-        <v>259.64</v>
+        <v>170.56</v>
       </c>
     </row>
     <row r="55">
@@ -7084,7 +7084,7 @@
         <v>320</v>
       </c>
       <c r="E55" t="n">
-        <v>408.46</v>
+        <v>328.97</v>
       </c>
     </row>
     <row r="56">
@@ -7101,7 +7101,7 @@
         <v>320</v>
       </c>
       <c r="E56" t="n">
-        <v>10727.48</v>
+        <v>11321.45</v>
       </c>
     </row>
     <row r="57">
@@ -7118,7 +7118,7 @@
         <v>320</v>
       </c>
       <c r="E57" t="n">
-        <v>12950.9</v>
+        <v>14216.46</v>
       </c>
     </row>
     <row r="58">
@@ -7135,7 +7135,7 @@
         <v>320</v>
       </c>
       <c r="E58" t="n">
-        <v>13842.09</v>
+        <v>15335.28</v>
       </c>
     </row>
     <row r="59">
@@ -7152,7 +7152,7 @@
         <v>320</v>
       </c>
       <c r="E59" t="n">
-        <v>338.1</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="60">
@@ -7169,7 +7169,7 @@
         <v>320</v>
       </c>
       <c r="E60" t="n">
-        <v>1506.37</v>
+        <v>866.37</v>
       </c>
     </row>
     <row r="61">
@@ -7186,7 +7186,7 @@
         <v>320</v>
       </c>
       <c r="E61" t="n">
-        <v>4019.47</v>
+        <v>2899.56</v>
       </c>
     </row>
   </sheetData>

--- a/Flux value summary.xlsx
+++ b/Flux value summary.xlsx
@@ -6183,7 +6183,7 @@
         <v>319</v>
       </c>
       <c r="E2" t="n">
-        <v>988.84</v>
+        <v>988.61</v>
       </c>
     </row>
     <row r="3">
@@ -6200,7 +6200,7 @@
         <v>319</v>
       </c>
       <c r="E3" t="n">
-        <v>947.24</v>
+        <v>945.67</v>
       </c>
     </row>
     <row r="4">
@@ -6217,7 +6217,7 @@
         <v>319</v>
       </c>
       <c r="E4" t="n">
-        <v>930.79</v>
+        <v>927.67</v>
       </c>
     </row>
     <row r="5">
@@ -6234,7 +6234,7 @@
         <v>319</v>
       </c>
       <c r="E5" t="n">
-        <v>14000.4</v>
+        <v>14000.49</v>
       </c>
     </row>
     <row r="6">
@@ -6251,7 +6251,7 @@
         <v>319</v>
       </c>
       <c r="E6" t="n">
-        <v>10462.76</v>
+        <v>10462.47</v>
       </c>
     </row>
     <row r="7">
@@ -6268,7 +6268,7 @@
         <v>319</v>
       </c>
       <c r="E7" t="n">
-        <v>26288.3</v>
+        <v>26283.06</v>
       </c>
     </row>
     <row r="8">
@@ -6285,7 +6285,7 @@
         <v>319</v>
       </c>
       <c r="E8" t="n">
-        <v>10211.71</v>
+        <v>10212.4</v>
       </c>
     </row>
     <row r="9">
@@ -6302,7 +6302,7 @@
         <v>319</v>
       </c>
       <c r="E9" t="n">
-        <v>10346.21</v>
+        <v>10346.66</v>
       </c>
     </row>
     <row r="10">
@@ -6319,7 +6319,7 @@
         <v>319</v>
       </c>
       <c r="E10" t="n">
-        <v>28198.63</v>
+        <v>28199.68</v>
       </c>
     </row>
     <row r="11">
@@ -6336,7 +6336,7 @@
         <v>319</v>
       </c>
       <c r="E11" t="n">
-        <v>5665.58</v>
+        <v>5664.32</v>
       </c>
     </row>
     <row r="12">
@@ -6353,7 +6353,7 @@
         <v>319</v>
       </c>
       <c r="E12" t="n">
-        <v>7687.18</v>
+        <v>7682.02</v>
       </c>
     </row>
     <row r="13">
@@ -6370,7 +6370,7 @@
         <v>319</v>
       </c>
       <c r="E13" t="n">
-        <v>15693.6</v>
+        <v>15674.26</v>
       </c>
     </row>
     <row r="14">
@@ -6387,7 +6387,7 @@
         <v>319</v>
       </c>
       <c r="E14" t="n">
-        <v>513.17</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="15">
@@ -6404,7 +6404,7 @@
         <v>319</v>
       </c>
       <c r="E15" t="n">
-        <v>592.06</v>
+        <v>588.86</v>
       </c>
     </row>
     <row r="16">
@@ -6421,7 +6421,7 @@
         <v>319</v>
       </c>
       <c r="E16" t="n">
-        <v>904.38</v>
+        <v>897.67</v>
       </c>
     </row>
     <row r="17">
@@ -6438,7 +6438,7 @@
         <v>319</v>
       </c>
       <c r="E17" t="n">
-        <v>1185.83</v>
+        <v>1193.21</v>
       </c>
     </row>
     <row r="18">
@@ -6455,7 +6455,7 @@
         <v>319</v>
       </c>
       <c r="E18" t="n">
-        <v>961.51</v>
+        <v>965.98</v>
       </c>
     </row>
     <row r="19">
@@ -6472,7 +6472,7 @@
         <v>319</v>
       </c>
       <c r="E19" t="n">
-        <v>1720.26</v>
+        <v>1701.08</v>
       </c>
     </row>
     <row r="20">
@@ -6489,7 +6489,7 @@
         <v>319</v>
       </c>
       <c r="E20" t="n">
-        <v>241.96</v>
+        <v>247.77</v>
       </c>
     </row>
     <row r="21">
@@ -6506,7 +6506,7 @@
         <v>319</v>
       </c>
       <c r="E21" t="n">
-        <v>513.53</v>
+        <v>504.27</v>
       </c>
     </row>
     <row r="22">
@@ -6523,7 +6523,7 @@
         <v>319</v>
       </c>
       <c r="E22" t="n">
-        <v>329.1</v>
+        <v>281.29</v>
       </c>
     </row>
     <row r="23">
@@ -6540,7 +6540,7 @@
         <v>319</v>
       </c>
       <c r="E23" t="n">
-        <v>1994.33</v>
+        <v>1973.97</v>
       </c>
     </row>
     <row r="24">
@@ -6557,7 +6557,7 @@
         <v>319</v>
       </c>
       <c r="E24" t="n">
-        <v>2712.18</v>
+        <v>2666.24</v>
       </c>
     </row>
     <row r="25">
@@ -6574,7 +6574,7 @@
         <v>319</v>
       </c>
       <c r="E25" t="n">
-        <v>2111.45</v>
+        <v>2035.02</v>
       </c>
     </row>
     <row r="26">
@@ -6591,7 +6591,7 @@
         <v>319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="27">
@@ -6608,7 +6608,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="n">
-        <v>23.8</v>
+        <v>360.55</v>
       </c>
     </row>
     <row r="28">
@@ -6625,7 +6625,7 @@
         <v>319</v>
       </c>
       <c r="E28" t="n">
-        <v>37.38</v>
+        <v>709.32</v>
       </c>
     </row>
     <row r="29">
@@ -6642,7 +6642,7 @@
         <v>319</v>
       </c>
       <c r="E29" t="n">
-        <v>1457.82</v>
+        <v>1506.45</v>
       </c>
     </row>
     <row r="30">
@@ -6659,7 +6659,7 @@
         <v>319</v>
       </c>
       <c r="E30" t="n">
-        <v>1625.4</v>
+        <v>1513.63</v>
       </c>
     </row>
     <row r="31">
@@ -6676,7 +6676,7 @@
         <v>319</v>
       </c>
       <c r="E31" t="n">
-        <v>6165.73</v>
+        <v>5801.79</v>
       </c>
     </row>
     <row r="32">
@@ -6693,7 +6693,7 @@
         <v>320</v>
       </c>
       <c r="E32" t="n">
-        <v>336.54</v>
+        <v>340.34</v>
       </c>
     </row>
     <row r="33">
@@ -6710,7 +6710,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="n">
-        <v>392.07</v>
+        <v>396.03</v>
       </c>
     </row>
     <row r="34">
@@ -6727,7 +6727,7 @@
         <v>320</v>
       </c>
       <c r="E34" t="n">
-        <v>429.39</v>
+        <v>435.25</v>
       </c>
     </row>
     <row r="35">
@@ -6744,7 +6744,7 @@
         <v>320</v>
       </c>
       <c r="E35" t="n">
-        <v>11260.98</v>
+        <v>11262.83</v>
       </c>
     </row>
     <row r="36">
@@ -6761,7 +6761,7 @@
         <v>320</v>
       </c>
       <c r="E36" t="n">
-        <v>9964.54</v>
+        <v>9964.79</v>
       </c>
     </row>
     <row r="37">
@@ -6778,7 +6778,7 @@
         <v>320</v>
       </c>
       <c r="E37" t="n">
-        <v>10001.74</v>
+        <v>10008.11</v>
       </c>
     </row>
     <row r="38">
@@ -6795,7 +6795,7 @@
         <v>320</v>
       </c>
       <c r="E38" t="n">
-        <v>7560.06</v>
+        <v>7560.91</v>
       </c>
     </row>
     <row r="39">
@@ -6812,7 +6812,7 @@
         <v>320</v>
       </c>
       <c r="E39" t="n">
-        <v>9187.91</v>
+        <v>9186.82</v>
       </c>
     </row>
     <row r="40">
@@ -6829,7 +6829,7 @@
         <v>320</v>
       </c>
       <c r="E40" t="n">
-        <v>8899.52</v>
+        <v>8896.51</v>
       </c>
     </row>
     <row r="41">
@@ -6846,7 +6846,7 @@
         <v>320</v>
       </c>
       <c r="E41" t="n">
-        <v>4047.28</v>
+        <v>4054.86</v>
       </c>
     </row>
     <row r="42">
@@ -6863,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="E42" t="n">
-        <v>4446.8</v>
+        <v>4460.11</v>
       </c>
     </row>
     <row r="43">
@@ -6880,7 +6880,7 @@
         <v>320</v>
       </c>
       <c r="E43" t="n">
-        <v>5776.44</v>
+        <v>5808.19</v>
       </c>
     </row>
     <row r="44">
@@ -6897,7 +6897,7 @@
         <v>320</v>
       </c>
       <c r="E44" t="n">
-        <v>2698.4</v>
+        <v>2701.64</v>
       </c>
     </row>
     <row r="45">
@@ -6914,7 +6914,7 @@
         <v>320</v>
       </c>
       <c r="E45" t="n">
-        <v>3471.28</v>
+        <v>3477.82</v>
       </c>
     </row>
     <row r="46">
@@ -6931,7 +6931,7 @@
         <v>320</v>
       </c>
       <c r="E46" t="n">
-        <v>2730.0</v>
+        <v>2739.3</v>
       </c>
     </row>
     <row r="47">
@@ -6948,7 +6948,7 @@
         <v>320</v>
       </c>
       <c r="E47" t="n">
-        <v>3597.96</v>
+        <v>3605.52</v>
       </c>
     </row>
     <row r="48">
@@ -6965,7 +6965,7 @@
         <v>320</v>
       </c>
       <c r="E48" t="n">
-        <v>5365.36</v>
+        <v>5380.72</v>
       </c>
     </row>
     <row r="49">
@@ -6982,7 +6982,7 @@
         <v>320</v>
       </c>
       <c r="E49" t="n">
-        <v>4171.29</v>
+        <v>4211.44</v>
       </c>
     </row>
     <row r="50">
@@ -6999,7 +6999,7 @@
         <v>320</v>
       </c>
       <c r="E50" t="n">
-        <v>727.29</v>
+        <v>752.55</v>
       </c>
     </row>
     <row r="51">
@@ -7016,7 +7016,7 @@
         <v>320</v>
       </c>
       <c r="E51" t="n">
-        <v>822.13</v>
+        <v>857.01</v>
       </c>
     </row>
     <row r="52">
@@ -7033,7 +7033,7 @@
         <v>320</v>
       </c>
       <c r="E52" t="n">
-        <v>860.29</v>
+        <v>946.92</v>
       </c>
     </row>
     <row r="53">
@@ -7050,7 +7050,7 @@
         <v>320</v>
       </c>
       <c r="E53" t="n">
-        <v>4.13</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="54">
@@ -7067,7 +7067,7 @@
         <v>320</v>
       </c>
       <c r="E54" t="n">
-        <v>170.56</v>
+        <v>242.93</v>
       </c>
     </row>
     <row r="55">
@@ -7084,7 +7084,7 @@
         <v>320</v>
       </c>
       <c r="E55" t="n">
-        <v>328.97</v>
+        <v>392.96</v>
       </c>
     </row>
     <row r="56">
@@ -7101,7 +7101,7 @@
         <v>320</v>
       </c>
       <c r="E56" t="n">
-        <v>11321.45</v>
+        <v>10976.84</v>
       </c>
     </row>
     <row r="57">
@@ -7118,7 +7118,7 @@
         <v>320</v>
       </c>
       <c r="E57" t="n">
-        <v>14216.46</v>
+        <v>13302.41</v>
       </c>
     </row>
     <row r="58">
@@ -7135,7 +7135,7 @@
         <v>320</v>
       </c>
       <c r="E58" t="n">
-        <v>15335.28</v>
+        <v>14101.16</v>
       </c>
     </row>
     <row r="59">
@@ -7152,7 +7152,7 @@
         <v>320</v>
       </c>
       <c r="E59" t="n">
-        <v>100.3</v>
+        <v>215.13</v>
       </c>
     </row>
     <row r="60">
@@ -7169,7 +7169,7 @@
         <v>320</v>
       </c>
       <c r="E60" t="n">
-        <v>866.37</v>
+        <v>1274.59</v>
       </c>
     </row>
     <row r="61">
@@ -7186,7 +7186,7 @@
         <v>320</v>
       </c>
       <c r="E61" t="n">
-        <v>2899.56</v>
+        <v>3830.55</v>
       </c>
     </row>
   </sheetData>
